--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1914.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1914.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.109960772871241</v>
+        <v>1.399168610572815</v>
       </c>
       <c r="B1">
-        <v>3.071640629450337</v>
+        <v>1.595760703086853</v>
       </c>
       <c r="C1">
-        <v>2.238791454634275</v>
+        <v>5.04764986038208</v>
       </c>
       <c r="D1">
-        <v>2.062670701411378</v>
+        <v>2.818417310714722</v>
       </c>
       <c r="E1">
-        <v>1.872045940053564</v>
+        <v>0.9069141149520874</v>
       </c>
     </row>
   </sheetData>
